--- a/data/trans_bre/P71_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.412381583634465</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.8347642455436399</v>
+        <v>-0.8347642455436344</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3386598355612012</v>
@@ -649,7 +649,7 @@
         <v>0.05082181314042303</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.02893199811935647</v>
+        <v>-0.02893199811935628</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.089237521863121</v>
+        <v>6.079448711023453</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.832652236966613</v>
+        <v>-8.492533128358703</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.37114734530529</v>
+        <v>-2.525504330963598</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.16796599364509</v>
+        <v>-5.672490715942489</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1852799516601639</v>
+        <v>0.1876681978427665</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2084189197681793</v>
+        <v>-0.1980433456668244</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.04747960555990968</v>
+        <v>-0.04927931226467216</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1616016727272627</v>
+        <v>-0.1719854202922913</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.14179180645587</v>
+        <v>14.05876284128688</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.2095922953446325</v>
+        <v>-0.1642219742991491</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.253177558519552</v>
+        <v>6.761446228535961</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.681642882510993</v>
+        <v>3.662033549739708</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5072289677641842</v>
+        <v>0.5148788496738808</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.007345746030803335</v>
+        <v>-0.009041387061489881</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1615680969248155</v>
+        <v>0.1517088778716655</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1455467117020353</v>
+        <v>0.1436200532410063</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.4253910981327269</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.204880897390216</v>
+        <v>2.204880897390213</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5433052129588937</v>
@@ -749,7 +749,7 @@
         <v>0.01240834860039819</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1548398744207478</v>
+        <v>0.1548398744207476</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.130749801617987</v>
+        <v>5.112384455085038</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.7054866024894291</v>
+        <v>-0.8745167728652763</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.637789936057286</v>
+        <v>-2.83943529751498</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.1337971949477255</v>
+        <v>0.09954975466614474</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3158671205524877</v>
+        <v>0.3274607617065837</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.0240105254255213</v>
+        <v>-0.02904007461436466</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.07247192011871972</v>
+        <v>-0.07916655670824162</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.009072540389605343</v>
+        <v>0.004055962326174642</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.62749482703191</v>
+        <v>10.62076099096658</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.711137777934719</v>
+        <v>5.558671438786963</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.39601243946202</v>
+        <v>3.151725341918696</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.406222312769346</v>
+        <v>4.461009266475076</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7976841713333215</v>
+        <v>0.7942044733712316</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1954404756431674</v>
+        <v>0.1943057451105963</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1057211242783809</v>
+        <v>0.09570705760807256</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3402773019039616</v>
+        <v>0.3504093619435938</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.186267826773878</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.621303689568881</v>
+        <v>2.62130368956888</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7463493485392441</v>
@@ -849,7 +849,7 @@
         <v>0.2934250358441446</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.8331130106594566</v>
+        <v>0.8331130106594564</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.51362881617384</v>
+        <v>1.029387334667898</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.045320216159748</v>
+        <v>-2.132289444935324</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.7591833800132222</v>
+        <v>-0.7196165951445085</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2738628604828619</v>
+        <v>0.3463654618553614</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1611694187467873</v>
+        <v>0.1093554803879902</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1472414852868628</v>
+        <v>-0.151085231288955</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.06289348279659296</v>
+        <v>-0.05417303330959217</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.02293919437112435</v>
+        <v>0.05139995826173602</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.953834883640727</v>
+        <v>8.714924375464204</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.271993363071898</v>
+        <v>7.344358910362693</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.545094602855213</v>
+        <v>7.106143517786682</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.036589485590272</v>
+        <v>4.884852144472329</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.591686087919745</v>
+        <v>1.583081633919173</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7382128294861477</v>
+        <v>0.7524663985242172</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8527849997299051</v>
+        <v>0.8279838314122741</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.381263847574701</v>
+        <v>2.39475930747004</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.339512403843064</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.531188807029328</v>
+        <v>2.531188807029333</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5388786766139482</v>
@@ -949,7 +949,7 @@
         <v>0.07001720162146501</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1762524963993455</v>
+        <v>0.1762524963993459</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.658270147688167</v>
+        <v>7.684382716259795</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.566912900812882</v>
+        <v>-1.173961286531798</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0005566768523520688</v>
+        <v>-0.1096422646347092</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7917653463950486</v>
+        <v>0.5730276926331906</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4001131571220857</v>
+        <v>0.3977147870549863</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.04905300660131998</v>
+        <v>-0.03777308125955284</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.0001385931117968458</v>
+        <v>-0.003525268573337009</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.0502376325766608</v>
+        <v>0.036825579161583</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.81764707740943</v>
+        <v>11.7183776674332</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.294566230386682</v>
+        <v>3.562623922052602</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.779105708782127</v>
+        <v>4.62271794657915</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.468751695953426</v>
+        <v>4.203065307601009</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6882042291250831</v>
+        <v>0.6816929228650506</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1104945510642837</v>
+        <v>0.1214797441322407</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1484148913940786</v>
+        <v>0.1435008226881546</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.338296167181742</v>
+        <v>0.3140895994266958</v>
       </c>
     </row>
     <row r="16">
